--- a/Template/TZ_glob.xlsx
+++ b/Template/TZ_glob.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SynologyDrive\Code_and_Scripts\for_work\toir_cmm\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code_and_Scripts_local\for_work\toir_raspredelenije_report\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1101D4-275F-4BDF-9E26-C1089F2A795B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CC57E2-D430-48C0-BC3C-E4BDB72F3478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{87260E27-6010-4F4C-902C-0FBBD21A1BB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87260E27-6010-4F4C-902C-0FBBD21A1BB8}"/>
   </bookViews>
   <sheets>
     <sheet name="gen_cl" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="496">
   <si>
     <t xml:space="preserve">Par. </t>
   </si>
@@ -1516,6 +1516,15 @@
   </si>
   <si>
     <t>II.18</t>
+  </si>
+  <si>
+    <t>II.18.2</t>
+  </si>
+  <si>
+    <t>Сервисирање систем непрекидног напајања у складу са техничком документацијом фабрике-произвођача</t>
+  </si>
+  <si>
+    <t>Сервисное обслуживание систем бесперебойного питания согласно технической документации завода-изготовителя.</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1735,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1773,17 +1782,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1797,130 +1815,6 @@
     <cellStyle name="Финансовый 2" xfId="5" xr:uid="{A7178EC7-4886-4E08-AB3B-462CE2DB2F85}"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2005,6 +1899,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2028,6 +1932,81 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2095,6 +2074,45 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -2225,18 +2243,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F75F64C1-DD61-4402-9CC2-39E63C190BB0}" name="Таблица3" displayName="Таблица3" ref="A1:G212" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="A1:G212" xr:uid="{F75F64C1-DD61-4402-9CC2-39E63C190BB0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F75F64C1-DD61-4402-9CC2-39E63C190BB0}" name="Таблица3" displayName="Таблица3" ref="A1:G213" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <autoFilter ref="A1:G213" xr:uid="{F75F64C1-DD61-4402-9CC2-39E63C190BB0}"/>
   <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{00312DFE-2C07-4BEF-AA8E-301E38F901FF}" name="N" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{00312DFE-2C07-4BEF-AA8E-301E38F901FF}" name="N" dataDxfId="15">
       <calculatedColumnFormula>ROW()-ROW(Таблица3[[#Headers],[N]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{1BC4858A-4A60-4C1D-BFC2-E2A37F8BC613}" name="Par. " dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{05E4E7A2-4266-4941-B302-3EA27D33A8E5}" name="Попис радова" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{2C4BF33E-C157-41C0-B22B-1A51E5AA7CC4}" name="Перечень работ" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{51A190CC-4EF5-428F-86F0-ED6F7D887BF8}" name="Периодичност" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{118DA3A6-20DA-42EC-8668-9E1A63C8CF77}" name="Podizvođač" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{16226896-902F-4BDF-A02E-9B5D2C266AEC}" name="Ukratko" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{1BC4858A-4A60-4C1D-BFC2-E2A37F8BC613}" name="Par. " dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{05E4E7A2-4266-4941-B302-3EA27D33A8E5}" name="Попис радова" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{2C4BF33E-C157-41C0-B22B-1A51E5AA7CC4}" name="Перечень работ" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{51A190CC-4EF5-428F-86F0-ED6F7D887BF8}" name="Периодичност" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{118DA3A6-20DA-42EC-8668-9E1A63C8CF77}" name="Podizvođač" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{16226896-902F-4BDF-A02E-9B5D2C266AEC}" name="Ukratko" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2539,10 +2557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6FC085-544B-4D39-960C-5520EAFB7863}">
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2615,7 +2633,7 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="6">
@@ -2639,7 +2657,7 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="6">
@@ -2687,7 +2705,7 @@
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -2807,7 +2825,7 @@
       <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -2831,7 +2849,7 @@
       <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="6">
@@ -2855,7 +2873,7 @@
       <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="6">
@@ -2879,7 +2897,7 @@
       <c r="D14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="6">
@@ -2927,7 +2945,7 @@
       <c r="D16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -2951,7 +2969,7 @@
       <c r="D17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="6">
@@ -2999,7 +3017,7 @@
       <c r="D19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -3287,7 +3305,7 @@
       <c r="D31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -3359,7 +3377,7 @@
       <c r="D34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="6">
@@ -3431,7 +3449,7 @@
       <c r="D37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="6" t="s">
@@ -4223,7 +4241,7 @@
       <c r="D70" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F70" s="6" t="s">
@@ -4245,7 +4263,7 @@
       <c r="D71" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F71" s="6" t="s">
@@ -4267,7 +4285,7 @@
       <c r="D72" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F72" s="6" t="s">
@@ -4313,7 +4331,7 @@
       <c r="D74" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -4337,7 +4355,7 @@
       <c r="D75" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F75" s="6">
@@ -4385,7 +4403,7 @@
       <c r="D77" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E77" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F77" s="6" t="s">
@@ -4433,7 +4451,7 @@
       <c r="D79" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F79" s="6">
@@ -4481,7 +4499,7 @@
       <c r="D81" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E81" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F81" s="6">
@@ -4505,7 +4523,7 @@
       <c r="D82" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E82" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -4527,7 +4545,7 @@
       <c r="D83" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E83" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F83" s="6">
@@ -4597,7 +4615,7 @@
       <c r="D86" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E86" s="17" t="s">
+      <c r="E86" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F86" s="6" t="s">
@@ -4645,7 +4663,7 @@
       <c r="D88" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E88" s="17" t="s">
+      <c r="E88" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F88" s="6" t="s">
@@ -4693,7 +4711,7 @@
       <c r="D90" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E90" s="17" t="s">
+      <c r="E90" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F90" s="6">
@@ -4703,7 +4721,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
         <v>90</v>
@@ -4727,7 +4745,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
         <v>91</v>
@@ -4741,7 +4759,7 @@
       <c r="D92" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E92" s="17" t="s">
+      <c r="E92" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F92" s="6" t="s">
@@ -4789,7 +4807,7 @@
       <c r="D94" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E94" s="17" t="s">
+      <c r="E94" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F94" s="6" t="s">
@@ -4813,7 +4831,7 @@
       <c r="D95" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E95" s="17" t="s">
+      <c r="E95" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F95" s="6" t="s">
@@ -4837,7 +4855,7 @@
       <c r="D96" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E96" s="17" t="s">
+      <c r="E96" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F96" s="6" t="s">
@@ -4885,7 +4903,7 @@
       <c r="D98" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E98" s="17" t="s">
+      <c r="E98" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F98" s="6" t="s">
@@ -4933,7 +4951,7 @@
       <c r="D100" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E100" s="17" t="s">
+      <c r="E100" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F100" s="6" t="s">
@@ -4981,7 +4999,7 @@
       <c r="D102" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E102" s="17" t="s">
+      <c r="E102" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F102" s="6" t="s">
@@ -5029,7 +5047,7 @@
       <c r="D104" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E104" s="17" t="s">
+      <c r="E104" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F104" s="6" t="s">
@@ -5077,7 +5095,7 @@
       <c r="D106" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E106" s="17" t="s">
+      <c r="E106" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F106" s="6" t="s">
@@ -5317,7 +5335,7 @@
       <c r="D116" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E116" s="17" t="s">
+      <c r="E116" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F116" s="6" t="s">
@@ -5461,7 +5479,7 @@
       <c r="D122" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E122" s="18" t="s">
+      <c r="E122" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F122" s="6" t="s">
@@ -6881,28 +6899,28 @@
         <v>461</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+    <row r="182" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="19">
         <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
         <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>402</v>
+        <v>493</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="D182" s="20" t="s">
+        <v>495</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F182" s="6">
-        <v>0</v>
-      </c>
-      <c r="G182" s="6" t="s">
-        <v>472</v>
+        <v>8</v>
+      </c>
+      <c r="F182" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="G182" s="22" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -6911,13 +6929,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="E183" s="16" t="s">
         <v>3</v>
@@ -6929,25 +6947,25 @@
         <v>472</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
         <v>183</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F184" s="6" t="s">
-        <v>409</v>
+        <v>3</v>
+      </c>
+      <c r="F184" s="6">
+        <v>0</v>
       </c>
       <c r="G184" s="6" t="s">
         <v>472</v>
@@ -6968,13 +6986,13 @@
         <v>408</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>409</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6991,8 +7009,8 @@
       <c r="D186" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E186" s="17" t="s">
-        <v>3</v>
+      <c r="E186" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>409</v>
@@ -7007,22 +7025,22 @@
         <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E187" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E187" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F187" s="6">
-        <v>0</v>
+      <c r="F187" s="6" t="s">
+        <v>409</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7031,37 +7049,37 @@
         <v>187</v>
       </c>
       <c r="B188" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F188" s="6">
+        <v>0</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <v>188</v>
+      </c>
+      <c r="B189" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C189" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D189" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F188" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G188" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>188</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E189" s="16" t="s">
         <v>8</v>
@@ -7073,22 +7091,22 @@
         <v>464</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
         <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>40</v>
+        <v>416</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E190" s="17" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>22</v>
@@ -7097,28 +7115,28 @@
         <v>464</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
         <v>190</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F191" s="6">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7136,7 +7154,7 @@
         <v>421</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F192" s="6">
         <v>0</v>
@@ -7145,28 +7163,28 @@
         <v>472</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
         <v>192</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F193" s="6" t="s">
-        <v>418</v>
+        <v>3</v>
+      </c>
+      <c r="F193" s="6">
+        <v>0</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -7184,7 +7202,7 @@
         <v>424</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>418</v>
@@ -7208,7 +7226,7 @@
         <v>424</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>418</v>
@@ -7223,16 +7241,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>418</v>
@@ -7256,7 +7274,7 @@
         <v>427</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>418</v>
@@ -7280,7 +7298,7 @@
         <v>427</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>418</v>
@@ -7295,22 +7313,22 @@
         <v>198</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -7328,7 +7346,7 @@
         <v>431</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>429</v>
@@ -7352,7 +7370,7 @@
         <v>431</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>429</v>
@@ -7376,7 +7394,7 @@
         <v>431</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>429</v>
@@ -7400,7 +7418,7 @@
         <v>431</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>429</v>
@@ -7415,22 +7433,22 @@
         <v>203</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F204" s="6">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -7448,7 +7466,7 @@
         <v>434</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F205" s="6">
         <v>0</v>
@@ -7457,51 +7475,53 @@
         <v>472</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
         <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206" s="6">
+        <v>0</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <v>206</v>
+      </c>
+      <c r="B207" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="C207" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D206" s="4" t="s">
+      <c r="D207" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="E206" s="18" t="s">
+      <c r="E207" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F206" s="6" t="s">
+      <c r="F207" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="G206" s="6" t="s">
+      <c r="G207" s="6" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>206</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E207" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F207" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="G207" s="6"/>
     </row>
     <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
@@ -7509,13 +7529,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E208" s="16" t="s">
         <v>3</v>
@@ -7531,13 +7551,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E209" s="16" t="s">
         <v>3</v>
@@ -7553,23 +7573,21 @@
         <v>209</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E210" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="E210" s="16" t="s">
         <v>3</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="G210" s="6" t="s">
-        <v>463</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="G210" s="6"/>
     </row>
     <row r="211" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
@@ -7577,86 +7595,110 @@
         <v>210</v>
       </c>
       <c r="B211" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <v>211</v>
+      </c>
+      <c r="B212" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E211" s="16" t="s">
+      <c r="E212" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F211" s="6" t="s">
+      <c r="F212" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="G211" s="6" t="s">
+      <c r="G212" s="6" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>211</v>
-      </c>
-      <c r="B212" s="15" t="s">
+    <row r="213" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <v>212</v>
+      </c>
+      <c r="B213" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="C212" s="13" t="s">
+      <c r="C213" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="D212" s="13" t="s">
+      <c r="D213" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="E212" s="19" t="s">
+      <c r="E213" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F212" s="6" t="s">
+      <c r="F213" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G212" s="6"/>
+      <c r="G213" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B213">
+    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C116:D116 C120:D121 C153:D153 C164:D165 C171:D172 C182:D182">
-    <cfRule type="expression" dxfId="10" priority="5">
+  <conditionalFormatting sqref="C116:D116 C120:D121 C153:D153 C164:D165 C171:D172 C183:D183">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>C116&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C207:D210">
-    <cfRule type="expression" dxfId="9" priority="6">
-      <formula>C207&lt;&gt;#REF!</formula>
+  <conditionalFormatting sqref="C208:D211">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>C208&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131:E143">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>C131&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22 E24:E25 E27:E28 E30:E31 E33 E38 E40 E42 E44:E45 E47 E49 E51 E53:E54 E56 E58:E59 E61:E62 E64 E66 E68 E73 E76 E78 E80 E85 E87 E89 E91 E93 E97 E99 E101 E103 E105 E108 E164 E166:E167 E169 E171 E177:E178 E184 E191 E193:E194 E196:E197 E199:E202 E204">
-    <cfRule type="expression" dxfId="7" priority="7">
+  <conditionalFormatting sqref="E22 E24:E25 E27:E28 E30:E31 E33 E38 E40 E42 E44:E45 E47 E49 E51 E53:E54 E56 E58:E59 E61:E62 E64 E66 E68 E73 E76 E78 E80 E85 E87 E89 E91 E93 E97 E99 E101 E103 E105 E108 E164 E166:E167 E169 E171 E177:E178 E185 E192 E194:E195 E197:E198 E200:E203 E205">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$E23=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E109:E163 E2:E21 E23 E26 E29 E32 E34:E37 E39 E41 E43 E46 E48 E50 E52 E55 E57 E60 E63 E65 E67 E69:E72 E74:E75 E77 E79 E81:E84 E86 E88 E90 E92 E94:E96 E98 E100 E102 E104 E106:E107 E165 E168 E170 E172:E176 E185:E190 E192 E195 E198 E201:E203 E205:E212 E179:E183">
-    <cfRule type="expression" dxfId="6" priority="8">
+  <conditionalFormatting sqref="E109:E163 E2:E21 E23 E26 E29 E32 E34:E37 E39 E41 E43 E46 E48 E50 E52 E55 E57 E60 E63 E65 E67 E69:E72 E74:E75 E77 E79 E81:E84 E86 E88 E90 E92 E94:E96 E98 E100 E102 E104 E106:E107 E165 E168 E170 E172:E176 E186:E191 E193 E196 E199 E202:E204 E206:E213 E179:E184">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120:E121">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>E120&lt;&gt;#REF!</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B212">
-    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7677,6 +7719,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006E10AFCD87A5BC49B28E62D7BC09A12E" ma:contentTypeVersion="10" ma:contentTypeDescription="Kreiraj novi dokument." ma:contentTypeScope="" ma:versionID="20c13e99c8cebdb2633b9045a3b9c3bd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1d51655e-5cd3-4194-b15b-2bc203b67e63" xmlns:ns3="691b8695-a47c-478e-9925-ebd689fbd75e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb4b2677cbe59649654dbe8f2a566821" ns2:_="" ns3:_="">
     <xsd:import namespace="1d51655e-5cd3-4194-b15b-2bc203b67e63"/>
@@ -7865,15 +7916,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{380CB200-3391-4A8E-A209-D63C4F6B47D0}">
   <ds:schemaRefs>
@@ -7892,6 +7934,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052CAC44-A069-4A8A-8F22-17B240C9B761}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C44B3709-2D44-4D1C-AF59-57A1DA735F63}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7908,12 +7958,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052CAC44-A069-4A8A-8F22-17B240C9B761}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Template/TZ_glob.xlsx
+++ b/Template/TZ_glob.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code_and_Scripts_local\for_work\toir_raspredelenije_report\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SynologyDrive\Code_and_Scripts\for_work\toir_tra_report\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CC57E2-D430-48C0-BC3C-E4BDB72F3478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D858F70-A8F9-442C-A739-8207BEC895BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87260E27-6010-4F4C-902C-0FBBD21A1BB8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87260E27-6010-4F4C-902C-0FBBD21A1BB8}"/>
   </bookViews>
   <sheets>
     <sheet name="gen_cl" sheetId="6" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="504">
   <si>
     <t xml:space="preserve">Par. </t>
   </si>
@@ -1239,6 +1242,24 @@
     <t>Netiks d.o.o.</t>
   </si>
   <si>
+    <t>II.18.1</t>
+  </si>
+  <si>
+    <t>Мерење унутрашњег отпора аку батерија</t>
+  </si>
+  <si>
+    <t>Измерение внутреннего сопротивления аккумуляторных батарей</t>
+  </si>
+  <si>
+    <t>II.18.2</t>
+  </si>
+  <si>
+    <t>Сервисирање систем непрекидног напајања у складу са техничком документацијом фабрике-произвођача</t>
+  </si>
+  <si>
+    <t>Сервисное обслуживание систем бесперебойного питания согласно технической документации завода-изготовителя.</t>
+  </si>
+  <si>
     <t>II.19.1</t>
   </si>
   <si>
@@ -1398,9 +1419,6 @@
     <t>CNE</t>
   </si>
   <si>
-    <t>ENL</t>
-  </si>
-  <si>
     <t>ENK</t>
   </si>
   <si>
@@ -1476,9 +1494,6 @@
     <t>Систем турбинског погонског гаса (II.26.3.1, II.26.3.2)</t>
   </si>
   <si>
-    <t>Turbine fuel gas system (II.26.3.1, II.26.3.2)</t>
-  </si>
-  <si>
     <t>Обслуживание системы топливного газа (II.26.4.1, II.26.4.2, II.26.4.3, II.26.4.4)</t>
   </si>
   <si>
@@ -1503,28 +1518,40 @@
     <t>KNT_KBV</t>
   </si>
   <si>
-    <t>OST_SNX</t>
-  </si>
-  <si>
     <t>DTA_VLK</t>
   </si>
   <si>
+    <t>OST</t>
+  </si>
+  <si>
+    <t>CT_ENL</t>
+  </si>
+  <si>
+    <t>Не отправляем транмиталл</t>
+  </si>
+  <si>
+    <t>II.18</t>
+  </si>
+  <si>
     <t>Систем непрекидног напајања 500-EK-001, 500-ED-001, Battery charger GCU 24V. Акумулаторске батерије</t>
   </si>
   <si>
     <t>Система бесперебойного питания (UPS) 500-EK-001, 500-ED-001, Battery charger GCU 24V. Аккумуляторные батареи</t>
   </si>
   <si>
-    <t>II.18</t>
-  </si>
-  <si>
-    <t>II.18.2</t>
-  </si>
-  <si>
-    <t>Сервисирање систем непрекидног напајања у складу са техничком документацијом фабрике-произвођача</t>
-  </si>
-  <si>
-    <t>Сервисное обслуживание систем бесперебойного питания согласно технической документации завода-изготовителя.</t>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -1735,7 +1762,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1762,7 +1789,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1776,31 +1809,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1814,7 +1832,363 @@
     <cellStyle name="Финансовый [0] 2" xfId="3" xr:uid="{47616301-AC54-4CB6-89B3-D033E9758E4E}"/>
     <cellStyle name="Финансовый 2" xfId="5" xr:uid="{A7178EC7-4886-4E08-AB3B-462CE2DB2F85}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2ECC71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2ECC71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2ECC71"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1850,6 +2224,81 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2ECC71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2ECC71"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2ECC71"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1909,221 +2358,13 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2146,75 +2387,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -2242,19 +2414,45 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Смотреть. Status CL"/>
+      <sheetName val="Заполнять"/>
+      <sheetName val="folder_CS"/>
+      <sheetName val="gen_cl"/>
+      <sheetName val="_"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F75F64C1-DD61-4402-9CC2-39E63C190BB0}" name="Таблица3" displayName="Таблица3" ref="A1:G213" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="A1:G213" xr:uid="{F75F64C1-DD61-4402-9CC2-39E63C190BB0}"/>
-  <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{00312DFE-2C07-4BEF-AA8E-301E38F901FF}" name="N" dataDxfId="15">
-      <calculatedColumnFormula>ROW()-ROW(Таблица3[[#Headers],[N]])</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F75F64C1-DD61-4402-9CC2-39E63C190BB0}" name="Таблица3" displayName="Таблица3" ref="A1:I217" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="A1:I217" xr:uid="{F75F64C1-DD61-4402-9CC2-39E63C190BB0}"/>
+  <tableColumns count="9">
+    <tableColumn id="5" xr3:uid="{00312DFE-2C07-4BEF-AA8E-301E38F901FF}" name="N" dataDxfId="11">
+      <calculatedColumnFormula>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{1BC4858A-4A60-4C1D-BFC2-E2A37F8BC613}" name="Par. " dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{05E4E7A2-4266-4941-B302-3EA27D33A8E5}" name="Попис радова" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{2C4BF33E-C157-41C0-B22B-1A51E5AA7CC4}" name="Перечень работ" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{51A190CC-4EF5-428F-86F0-ED6F7D887BF8}" name="Периодичност" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{118DA3A6-20DA-42EC-8668-9E1A63C8CF77}" name="Podizvođač" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{16226896-902F-4BDF-A02E-9B5D2C266AEC}" name="Ukratko" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{1BC4858A-4A60-4C1D-BFC2-E2A37F8BC613}" name="Par. " dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{05E4E7A2-4266-4941-B302-3EA27D33A8E5}" name="Попис радова" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{2C4BF33E-C157-41C0-B22B-1A51E5AA7CC4}" name="Перечень работ" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{51A190CC-4EF5-428F-86F0-ED6F7D887BF8}" name="Периодичност" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{118DA3A6-20DA-42EC-8668-9E1A63C8CF77}" name="Podizvođač" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{16226896-902F-4BDF-A02E-9B5D2C266AEC}" name="Ukratko" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{82736B21-2761-4B40-A0CC-ED3BCA22955F}" name="Reserved" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{D3B67258-E7DA-4FCF-93E5-AD872CB032F6}" name="Comments" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2557,10 +2755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6FC085-544B-4D39-960C-5520EAFB7863}">
-  <dimension ref="A1:G213"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,32 +2770,38 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+      <c r="E1" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2609,19 +2813,21 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2633,19 +2839,21 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2657,19 +2865,21 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2681,19 +2891,21 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2705,19 +2917,23 @@
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2729,19 +2945,21 @@
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2753,19 +2971,21 @@
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2777,19 +2997,21 @@
       <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2801,19 +3023,21 @@
       <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2825,19 +3049,21 @@
       <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2849,19 +3075,21 @@
       <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2873,19 +3101,21 @@
       <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2897,19 +3127,21 @@
       <c r="D14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2921,19 +3153,23 @@
       <c r="D15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2945,19 +3181,23 @@
       <c r="D16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2969,19 +3209,21 @@
       <c r="D17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2993,19 +3235,23 @@
       <c r="D18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -3017,19 +3263,23 @@
       <c r="D19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -3041,19 +3291,21 @@
       <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3065,19 +3317,21 @@
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3089,19 +3343,21 @@
       <c r="D22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -3113,19 +3369,21 @@
       <c r="D23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -3137,19 +3395,21 @@
       <c r="D24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="6">
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -3161,19 +3421,21 @@
       <c r="D25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="6">
         <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3185,19 +3447,21 @@
       <c r="D26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -3209,19 +3473,21 @@
       <c r="D27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3233,19 +3499,21 @@
       <c r="D28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="9" t="s">
         <v>76</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3257,19 +3525,21 @@
       <c r="D29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -3281,19 +3551,21 @@
       <c r="D30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -3305,19 +3577,21 @@
       <c r="D31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -3329,19 +3603,21 @@
       <c r="D32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3353,19 +3629,21 @@
       <c r="D33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -3377,19 +3655,21 @@
       <c r="D34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="6">
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -3401,19 +3681,21 @@
       <c r="D35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3425,19 +3707,21 @@
       <c r="D36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -3449,19 +3733,21 @@
       <c r="D37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3473,19 +3759,21 @@
       <c r="D38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F38" s="6">
         <v>0</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -3497,19 +3785,21 @@
       <c r="D39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -3521,19 +3811,21 @@
       <c r="D40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F40" s="6">
         <v>0</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -3545,19 +3837,21 @@
       <c r="D41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="6">
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -3569,19 +3863,21 @@
       <c r="D42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>95</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -3593,19 +3889,21 @@
       <c r="D43" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>95</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -3617,19 +3915,21 @@
       <c r="D44" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -3641,19 +3941,21 @@
       <c r="D45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -3665,19 +3967,21 @@
       <c r="D46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -3689,19 +3993,21 @@
       <c r="D47" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F47" s="6">
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -3713,19 +4019,21 @@
       <c r="D48" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="6">
         <v>0</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -3737,19 +4045,21 @@
       <c r="D49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F49" s="6">
         <v>0</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -3761,19 +4071,21 @@
       <c r="D50" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="6">
         <v>0</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -3785,19 +4097,21 @@
       <c r="D51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>95</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3809,19 +4123,21 @@
       <c r="D52" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>95</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -3833,19 +4149,21 @@
       <c r="D53" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -3857,19 +4175,21 @@
       <c r="D54" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -3881,19 +4201,21 @@
       <c r="D55" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3905,19 +4227,21 @@
       <c r="D56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F56" s="6">
         <v>0</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -3929,19 +4253,21 @@
       <c r="D57" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="6">
         <v>0</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -3953,19 +4279,21 @@
       <c r="D58" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F58" s="6">
         <v>0</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -3977,19 +4305,21 @@
       <c r="D59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="6">
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -4001,19 +4331,21 @@
       <c r="D60" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F60" s="6">
         <v>0</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -4025,19 +4357,21 @@
       <c r="D61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -4049,19 +4383,21 @@
       <c r="D62" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -4073,19 +4409,21 @@
       <c r="D63" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -4097,19 +4435,21 @@
       <c r="D64" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>124</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -4121,19 +4461,21 @@
       <c r="D65" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>124</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -4145,19 +4487,21 @@
       <c r="D66" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>124</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -4169,19 +4513,21 @@
       <c r="D67" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>124</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -4193,19 +4539,21 @@
       <c r="D68" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>95</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -4217,19 +4565,21 @@
       <c r="D69" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>95</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -4241,17 +4591,19 @@
       <c r="D70" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>134</v>
       </c>
       <c r="G70" s="6"/>
-    </row>
-    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H70" s="19"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -4263,17 +4615,19 @@
       <c r="D71" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>134</v>
       </c>
       <c r="G71" s="6"/>
-    </row>
-    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H71" s="19"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -4285,17 +4639,19 @@
       <c r="D72" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>134</v>
       </c>
       <c r="G72" s="6"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="19"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -4307,19 +4663,21 @@
       <c r="D73" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>144</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -4331,19 +4689,21 @@
       <c r="D74" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>144</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -4355,19 +4715,21 @@
       <c r="D75" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F75" s="6">
         <v>0</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -4379,19 +4741,21 @@
       <c r="D76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>151</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -4403,19 +4767,21 @@
       <c r="D77" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>151</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -4427,19 +4793,21 @@
       <c r="D78" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F78" s="6">
         <v>0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -4451,19 +4819,21 @@
       <c r="D79" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F79" s="6">
         <v>0</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -4475,19 +4845,21 @@
       <c r="D80" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F80" s="6">
         <v>0</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H80" s="19"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -4499,19 +4871,21 @@
       <c r="D81" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F81" s="6">
         <v>0</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H81" s="19"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -4523,17 +4897,19 @@
       <c r="D82" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>134</v>
       </c>
       <c r="G82" s="6"/>
-    </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H82" s="19"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -4545,19 +4921,21 @@
       <c r="D83" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F83" s="6">
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -4569,17 +4947,19 @@
       <c r="D84" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>167</v>
       </c>
       <c r="G84" s="6"/>
-    </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H84" s="19"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -4591,19 +4971,21 @@
       <c r="D85" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -4615,19 +4997,21 @@
       <c r="D86" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="H86" s="19"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -4639,19 +5023,21 @@
       <c r="D87" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="9" t="s">
         <v>175</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -4663,19 +5049,21 @@
       <c r="D88" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E88" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="H88" s="19"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -4687,19 +5075,21 @@
       <c r="D89" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F89" s="6">
         <v>0</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H89" s="19"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -4711,19 +5101,21 @@
       <c r="D90" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F90" s="6">
         <v>0</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H90" s="19"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -4735,19 +5127,21 @@
       <c r="D91" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H91" s="19"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -4759,19 +5153,21 @@
       <c r="D92" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H92" s="19"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -4783,19 +5179,21 @@
       <c r="D93" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="H93" s="19"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -4807,19 +5205,21 @@
       <c r="D94" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="H94" s="19"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -4831,19 +5231,21 @@
       <c r="D95" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H95" s="19"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -4855,19 +5257,21 @@
       <c r="D96" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H96" s="19"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -4879,19 +5283,21 @@
       <c r="D97" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H97" s="19"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -4903,19 +5309,21 @@
       <c r="D98" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -4927,19 +5335,21 @@
       <c r="D99" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -4951,19 +5361,21 @@
       <c r="D100" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E100" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -4975,19 +5387,21 @@
       <c r="D101" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="9" t="s">
         <v>175</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -4999,19 +5413,21 @@
       <c r="D102" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -5023,19 +5439,21 @@
       <c r="D103" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="9" t="s">
         <v>175</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -5047,19 +5465,21 @@
       <c r="D104" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -5071,19 +5491,21 @@
       <c r="D105" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -5095,19 +5517,21 @@
       <c r="D106" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -5119,19 +5543,21 @@
       <c r="D107" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>207</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -5143,19 +5569,21 @@
       <c r="D108" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>207</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -5167,19 +5595,21 @@
       <c r="D109" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>207</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -5191,19 +5621,21 @@
       <c r="D110" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>214</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -5215,19 +5647,21 @@
       <c r="D111" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -5239,19 +5673,21 @@
       <c r="D112" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H112" s="19"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -5263,19 +5699,21 @@
       <c r="D113" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -5287,19 +5725,21 @@
       <c r="D114" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>227</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -5311,19 +5751,21 @@
       <c r="D115" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -5335,19 +5777,21 @@
       <c r="D116" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" s="10" t="s">
         <v>68</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -5359,19 +5803,21 @@
       <c r="D117" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H117" s="19"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -5383,19 +5829,21 @@
       <c r="D118" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -5407,19 +5855,21 @@
       <c r="D119" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H119" s="19"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -5431,19 +5881,21 @@
       <c r="D120" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H120" s="19"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -5455,19 +5907,21 @@
       <c r="D121" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H121" s="19"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>121</v>
       </c>
       <c r="B122" s="8" t="s">
@@ -5479,17 +5933,19 @@
       <c r="D122" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E122" s="17" t="s">
+      <c r="E122" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>249</v>
       </c>
       <c r="G122" s="6"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="19"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -5501,19 +5957,21 @@
       <c r="D123" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F123" s="6">
         <v>0</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H123" s="19"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -5525,19 +5983,21 @@
       <c r="D124" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F124" s="6">
         <v>0</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H124" s="19"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -5549,19 +6009,21 @@
       <c r="D125" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F125" s="6">
         <v>0</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H125" s="19"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -5573,19 +6035,21 @@
       <c r="D126" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F126" s="6">
         <v>0</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H126" s="19"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -5597,19 +6061,21 @@
       <c r="D127" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>268</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="H127" s="19"/>
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -5621,19 +6087,21 @@
       <c r="D128" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>168</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="H128" s="19"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -5645,19 +6113,21 @@
       <c r="D129" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F129" s="6">
         <v>0</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H129" s="19"/>
+      <c r="I129" s="6"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -5669,19 +6139,21 @@
       <c r="D130" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F130" s="6">
         <v>0</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H130" s="19"/>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -5693,19 +6165,21 @@
       <c r="D131" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>278</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+      <c r="H131" s="19"/>
+      <c r="I131" s="6"/>
+    </row>
+    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -5717,19 +6191,21 @@
       <c r="D132" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>207</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="H132" s="19"/>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -5741,19 +6217,21 @@
       <c r="D133" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H133" s="19"/>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -5765,19 +6243,21 @@
       <c r="D134" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E134" s="16" t="s">
+      <c r="E134" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H134" s="19"/>
+      <c r="I134" s="6"/>
+    </row>
+    <row r="135" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -5789,19 +6269,21 @@
       <c r="D135" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H135" s="19"/>
+      <c r="I135" s="6"/>
+    </row>
+    <row r="136" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -5813,19 +6295,21 @@
       <c r="D136" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H136" s="19"/>
+      <c r="I136" s="6"/>
+    </row>
+    <row r="137" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -5837,19 +6321,21 @@
       <c r="D137" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H137" s="19"/>
+      <c r="I137" s="6"/>
+    </row>
+    <row r="138" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -5861,19 +6347,21 @@
       <c r="D138" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E138" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H138" s="19"/>
+      <c r="I138" s="6"/>
+    </row>
+    <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -5885,19 +6373,21 @@
       <c r="D139" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H139" s="19"/>
+      <c r="I139" s="6"/>
+    </row>
+    <row r="140" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -5909,19 +6399,21 @@
       <c r="D140" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H140" s="19"/>
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -5933,19 +6425,21 @@
       <c r="D141" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>214</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="H141" s="19"/>
+      <c r="I141" s="6"/>
+    </row>
+    <row r="142" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -5957,19 +6451,21 @@
       <c r="D142" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H142" s="19"/>
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -5981,19 +6477,21 @@
       <c r="D143" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H143" s="19"/>
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -6005,19 +6503,21 @@
       <c r="D144" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="E144" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H144" s="19"/>
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -6029,19 +6529,21 @@
       <c r="D145" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E145" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H145" s="19"/>
+      <c r="I145" s="6"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -6053,19 +6555,21 @@
       <c r="D146" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E146" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H146" s="19"/>
+      <c r="I146" s="6"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -6077,19 +6581,21 @@
       <c r="D147" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="E147" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H147" s="19"/>
+      <c r="I147" s="6"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -6101,19 +6607,21 @@
       <c r="D148" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="H148" s="19"/>
+      <c r="I148" s="6"/>
+    </row>
+    <row r="149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -6125,19 +6633,23 @@
       <c r="D149" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="H149" s="19"/>
+      <c r="I149" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -6149,19 +6661,21 @@
       <c r="D150" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="E150" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>268</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="H150" s="19"/>
+      <c r="I150" s="6"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
@@ -6173,19 +6687,21 @@
       <c r="D151" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="E151" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F151" s="6">
         <v>0</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H151" s="19"/>
+      <c r="I151" s="6"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -6197,19 +6713,21 @@
       <c r="D152" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="E152" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F152" s="6">
         <v>0</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H152" s="19"/>
+      <c r="I152" s="6"/>
+    </row>
+    <row r="153" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
@@ -6221,17 +6739,19 @@
       <c r="D153" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>249</v>
       </c>
       <c r="G153" s="6"/>
-    </row>
-    <row r="154" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H153" s="19"/>
+      <c r="I153" s="6"/>
+    </row>
+    <row r="154" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -6243,19 +6763,21 @@
       <c r="D154" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="E154" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F154" s="6">
         <v>0</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H154" s="19"/>
+      <c r="I154" s="6"/>
+    </row>
+    <row r="155" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -6267,19 +6789,21 @@
       <c r="D155" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E155" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F155" s="6">
         <v>0</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H155" s="19"/>
+      <c r="I155" s="6"/>
+    </row>
+    <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -6291,19 +6815,21 @@
       <c r="D156" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F156" s="6">
         <v>0</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H156" s="19"/>
+      <c r="I156" s="6"/>
+    </row>
+    <row r="157" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -6315,19 +6841,21 @@
       <c r="D157" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E157" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F157" s="6">
         <v>0</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H157" s="19"/>
+      <c r="I157" s="6"/>
+    </row>
+    <row r="158" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -6339,19 +6867,21 @@
       <c r="D158" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="E158" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F158" s="6">
         <v>0</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H158" s="19"/>
+      <c r="I158" s="6"/>
+    </row>
+    <row r="159" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -6363,19 +6893,21 @@
       <c r="D159" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E159" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F159" s="6">
         <v>0</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H159" s="19"/>
+      <c r="I159" s="6"/>
+    </row>
+    <row r="160" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -6387,19 +6919,21 @@
       <c r="D160" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="E160" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F160" s="6">
         <v>0</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H160" s="19"/>
+      <c r="I160" s="6"/>
+    </row>
+    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
@@ -6411,19 +6945,21 @@
       <c r="D161" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="E161" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F161" s="6">
         <v>0</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H161" s="19"/>
+      <c r="I161" s="6"/>
+    </row>
+    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
@@ -6435,19 +6971,21 @@
       <c r="D162" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F162" s="6">
         <v>0</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H162" s="19"/>
+      <c r="I162" s="6"/>
+    </row>
+    <row r="163" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -6459,19 +6997,23 @@
       <c r="D163" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E163" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="H163" s="19"/>
+      <c r="I163" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
@@ -6483,19 +7025,21 @@
       <c r="D164" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E164" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F164" s="6">
         <v>0</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H164" s="19"/>
+      <c r="I164" s="6"/>
+    </row>
+    <row r="165" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -6507,22 +7051,24 @@
       <c r="D165" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="E165" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F165" s="6">
         <v>0</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H165" s="19"/>
+      <c r="I165" s="6"/>
+    </row>
+    <row r="166" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>165</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="10" t="s">
         <v>370</v>
       </c>
       <c r="C166" s="7" t="s">
@@ -6531,22 +7077,24 @@
       <c r="D166" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="E166" s="16" t="s">
+      <c r="E166" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="H166" s="19"/>
+      <c r="I166" s="6"/>
+    </row>
+    <row r="167" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>166</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="10" t="s">
         <v>370</v>
       </c>
       <c r="C167" s="7" t="s">
@@ -6555,22 +7103,24 @@
       <c r="D167" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="E167" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="H167" s="19"/>
+      <c r="I167" s="6"/>
+    </row>
+    <row r="168" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>167</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="10" t="s">
         <v>370</v>
       </c>
       <c r="C168" s="7" t="s">
@@ -6579,19 +7129,21 @@
       <c r="D168" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="E168" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="H168" s="19"/>
+      <c r="I168" s="6"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
@@ -6603,19 +7155,21 @@
       <c r="D169" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="E169" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>376</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="H169" s="19"/>
+      <c r="I169" s="6"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -6627,19 +7181,21 @@
       <c r="D170" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="E170" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>376</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="H170" s="19"/>
+      <c r="I170" s="6"/>
+    </row>
+    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
@@ -6651,19 +7207,21 @@
       <c r="D171" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E171" s="16" t="s">
+      <c r="E171" s="9" t="s">
         <v>381</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>380</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="H171" s="19"/>
+      <c r="I171" s="6"/>
+    </row>
+    <row r="172" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -6675,19 +7233,21 @@
       <c r="D172" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="E172" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>380</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="H172" s="19"/>
+      <c r="I172" s="6"/>
+    </row>
+    <row r="173" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
@@ -6699,19 +7259,21 @@
       <c r="D173" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E173" s="16" t="s">
+      <c r="E173" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>385</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="H173" s="19"/>
+      <c r="I173" s="6"/>
+    </row>
+    <row r="174" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
@@ -6723,19 +7285,21 @@
       <c r="D174" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E174" s="16" t="s">
+      <c r="E174" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>385</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="H174" s="19"/>
+      <c r="I174" s="6"/>
+    </row>
+    <row r="175" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
@@ -6747,19 +7311,21 @@
       <c r="D175" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E175" s="16" t="s">
+      <c r="E175" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>385</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="H175" s="19"/>
+      <c r="I175" s="6"/>
+    </row>
+    <row r="176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
@@ -6771,19 +7337,21 @@
       <c r="D176" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E176" s="16" t="s">
+      <c r="E176" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>385</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="H176" s="19"/>
+      <c r="I176" s="6"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -6795,19 +7363,21 @@
       <c r="D177" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E177" s="16" t="s">
+      <c r="E177" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>376</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="H177" s="19"/>
+      <c r="I177" s="6"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
@@ -6819,19 +7389,21 @@
       <c r="D178" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E178" s="16" t="s">
+      <c r="E178" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>376</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="H178" s="19"/>
+      <c r="I178" s="6"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -6843,19 +7415,21 @@
       <c r="D179" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E179" s="16" t="s">
+      <c r="E179" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F179" s="6" t="s">
         <v>376</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="H179" s="19"/>
+      <c r="I179" s="6"/>
+    </row>
+    <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
@@ -6867,838 +7441,1043 @@
       <c r="D180" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E180" s="16" t="s">
+      <c r="E180" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>398</v>
       </c>
       <c r="G180" s="6"/>
-    </row>
-    <row r="181" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H180" s="19"/>
+      <c r="I180" s="6"/>
+    </row>
+    <row r="181" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>180</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="E181" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="E181" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>399</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" s="19">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <v>466</v>
+      </c>
+      <c r="H181" s="19"/>
+      <c r="I181" s="6"/>
+    </row>
+    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="D182" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="E182" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E182" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F182" s="21" t="s">
+      <c r="F182" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="G182" s="22" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G182" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H182" s="19"/>
+      <c r="I182" s="6"/>
+    </row>
+    <row r="183" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>182</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E183" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F183" s="6">
-        <v>0</v>
+        <v>403</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>399</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="H183" s="19"/>
+      <c r="I183" s="6"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>183</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E184" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E184" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F184" s="6">
         <v>0</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H184" s="19"/>
+      <c r="I184" s="6"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>184</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E185" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F185" s="6">
+        <v>0</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="H185" s="19"/>
+      <c r="I185" s="6"/>
+    </row>
+    <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>185</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E186" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F185" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="G185" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>185</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E186" s="16" t="s">
+      <c r="F186" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="H186" s="19"/>
+      <c r="I186" s="6"/>
+    </row>
+    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>186</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E187" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F186" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="G186" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>186</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E187" s="9" t="s">
+      <c r="F187" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="H187" s="19"/>
+      <c r="I187" s="6"/>
+    </row>
+    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>187</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E188" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F187" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>187</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E188" s="16" t="s">
+      <c r="F188" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="H188" s="19"/>
+      <c r="I188" s="6"/>
+    </row>
+    <row r="189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>188</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E189" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F188" s="6">
+      <c r="F189" s="6">
         <v>0</v>
       </c>
-      <c r="G188" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>188</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D189" s="2" t="s">
+      <c r="G189" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="H189" s="19"/>
+      <c r="I189" s="6"/>
+    </row>
+    <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>189</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E189" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F189" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G189" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>189</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E190" s="16" t="s">
+      <c r="E190" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="H190" s="19"/>
+      <c r="I190" s="6"/>
+    </row>
+    <row r="191" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>190</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>40</v>
+        <v>422</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="H191" s="19"/>
+      <c r="I191" s="6"/>
+    </row>
+    <row r="192" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>191</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E192" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E192" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="H192" s="19"/>
+      <c r="I192" s="6"/>
+    </row>
+    <row r="193" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>192</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E193" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="F192" s="6">
-        <v>0</v>
-      </c>
-      <c r="G192" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>192</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E193" s="16" t="s">
-        <v>3</v>
       </c>
       <c r="F193" s="6">
         <v>0</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="H193" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="I193" s="6"/>
+    </row>
+    <row r="194" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
         <v>193</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D194" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F194" s="6">
+        <v>0</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="H194" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="I194" s="6"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>194</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F195" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="E194" s="16" t="s">
+      <c r="G195" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="H195" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="I195" s="6"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>195</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E196" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="H196" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="I196" s="6"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>196</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="H197" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="I197" s="6"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>197</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E198" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F194" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="G194" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>194</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D195" s="1" t="s">
+      <c r="F198" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="E195" s="16" t="s">
+      <c r="G198" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="H198" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I198" s="6"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>198</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="H199" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="I199" s="6"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>199</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E200" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F195" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="G195" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>195</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D196" s="1" t="s">
+      <c r="F200" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="E196" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F196" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="G196" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>196</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E197" s="16" t="s">
+      <c r="G200" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="H200" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I200" s="6"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>200</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="H201" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="I201" s="6"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>201</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G202" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="H202" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="I202" s="6"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>202</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="H203" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="I203" s="6"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>203</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="H204" s="19"/>
+      <c r="I204" s="6"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>204</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E205" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F197" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>197</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E198" s="16" t="s">
+      <c r="F205" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="H205" s="19"/>
+      <c r="I205" s="6"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>205</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E206" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F198" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>198</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E199" s="16" t="s">
+      <c r="F206" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="H206" s="19"/>
+      <c r="I206" s="6"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>206</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E207" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="F199" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="G199" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>199</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F200" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="G200" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>200</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E201" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F201" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>201</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E202" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F202" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="G202" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>202</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E203" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F203" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="G203" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>203</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E204" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F204" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="G204" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>204</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E205" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F205" s="6">
-        <v>0</v>
-      </c>
-      <c r="G205" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>205</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E206" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F206" s="6">
-        <v>0</v>
-      </c>
-      <c r="G206" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>206</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E207" s="17" t="s">
-        <v>8</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>435</v>
       </c>
       <c r="G207" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="H207" s="19"/>
+      <c r="I207" s="6"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>207</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E208" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="H208" s="19"/>
+      <c r="I208" s="6"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>208</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E209" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F209" s="6">
+        <v>0</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="H209" s="19"/>
+      <c r="I209" s="6"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>209</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E210" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F210" s="6">
+        <v>0</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="H210" s="19"/>
+      <c r="I210" s="6"/>
+    </row>
+    <row r="211" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>210</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E211" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="H211" s="19"/>
+      <c r="I211" s="6"/>
+    </row>
+    <row r="212" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>211</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E212" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G212" s="6"/>
+      <c r="H212" s="19"/>
+      <c r="I212" s="6"/>
+    </row>
+    <row r="213" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>212</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G213" s="6"/>
+      <c r="H213" s="19"/>
+      <c r="I213" s="6"/>
+    </row>
+    <row r="214" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>213</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D214" s="1"/>
+      <c r="E214" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G214" s="6"/>
+      <c r="H214" s="19"/>
+      <c r="I214" s="6"/>
+    </row>
+    <row r="215" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>214</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E215" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="G215" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="H215" s="19"/>
+      <c r="I215" s="6"/>
+    </row>
+    <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>215</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>207</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E208" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F208" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="G208" s="6"/>
-    </row>
-    <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>208</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="E209" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F209" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="G209" s="6"/>
-    </row>
-    <row r="210" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>209</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="E210" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F210" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="G210" s="6"/>
-    </row>
-    <row r="211" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>210</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E211" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F211" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="G211" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>211</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E212" s="16" t="s">
+      <c r="D216" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E216" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F212" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="G212" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
-        <f>ROW()-ROW(Таблица3[[#Headers],[N]])</f>
-        <v>212</v>
-      </c>
-      <c r="B213" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="C213" s="13" t="s">
+      <c r="F216" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="H216" s="19"/>
+      <c r="I216" s="6"/>
+    </row>
+    <row r="217" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <f>ROW()-ROW([1]!Таблица3[[#Headers],[N]])</f>
+        <v>216</v>
+      </c>
+      <c r="B217" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="C217" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="D213" s="13" t="s">
+      <c r="D217" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="E213" s="18" t="s">
+      <c r="E217" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F213" s="6" t="s">
+      <c r="F217" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G213" s="6"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="19"/>
+      <c r="I217" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  <conditionalFormatting sqref="A2:B181 A182:A183 A184:B217">
+    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B213">
-    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
+  <conditionalFormatting sqref="B182:B183">
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C116:D116 C120:D121 C153:D153 C164:D165 C171:D172 C183:D183">
-    <cfRule type="expression" dxfId="5" priority="5">
+  <conditionalFormatting sqref="C116:D116 C120:D121 C153:D153 C164:D165 C171:D172 C184:D184 C212:D213 C214 C215:D215">
+    <cfRule type="expression" dxfId="19" priority="7">
       <formula>C116&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C208:D211">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>C208&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C131:E143">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>C131&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22 E24:E25 E27:E28 E30:E31 E33 E38 E40 E42 E44:E45 E47 E49 E51 E53:E54 E56 E58:E59 E61:E62 E64 E66 E68 E73 E76 E78 E80 E85 E87 E89 E91 E93 E97 E99 E101 E103 E105 E108 E164 E166:E167 E169 E171 E177:E178 E185 E192 E194:E195 E197:E198 E200:E203 E205">
-    <cfRule type="expression" dxfId="2" priority="7">
+  <conditionalFormatting sqref="E22 E24:E25 E27:E28 E30:E31 E33 E38 E40 E42 E44:E45 E47 E49 E51 E53:E54 E56 E58:E59 E61:E62 E64 E66 E68 E73 E76 E78 E80 E85 E87 E89 E91 E93 E97 E99 E101 E103 E105 E108 E164 E166:E167 E169 E171 E177:E178 E186 E193 E195:E196 E204:E207 E209">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>$E23=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E109:E163 E2:E21 E23 E26 E29 E32 E34:E37 E39 E41 E43 E46 E48 E50 E52 E55 E57 E60 E63 E65 E67 E69:E72 E74:E75 E77 E79 E81:E84 E86 E88 E90 E92 E94:E96 E98 E100 E102 E104 E106:E107 E165 E168 E170 E172:E176 E186:E191 E193 E196 E199 E202:E204 E206:E213 E179:E184">
-    <cfRule type="expression" dxfId="1" priority="8">
+  <conditionalFormatting sqref="E109:E163 E2:E21 E23 E26 E29 E32 E34:E37 E39 E41 E43 E46 E48 E50 E52 E55 E57 E60 E63 E65 E67 E69:E72 E74:E75 E77 E79 E81:E84 E86 E88 E90 E92 E94:E96 E98 E100 E102 E104 E106:E107 E165 E168 E170 E172:E176 E187:E192 E194 E197 E202:E203 E206:E208 E210:E217">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120:E121">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>E120&lt;&gt;#REF!</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E179:E185">
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>#REF!=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E198 E200">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$E200=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E199 E201">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$E202=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B1">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
